--- a/Kostenanalyseplan- und verlauf.xlsx
+++ b/Kostenanalyseplan- und verlauf.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uidn5335\Documents\Schule\Jahr 3\Interdisziplinäres Schulsoftwareprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{BBB34669-5D00-459E-9241-95300F395BB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEE062-205A-4115-9580-407D1119C585}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kosten Einzeln" sheetId="1" r:id="rId1"/>
-    <sheet name="Kostensummen" sheetId="2" r:id="rId2"/>
+    <sheet name="Einzelkosten" sheetId="1" r:id="rId1"/>
+    <sheet name="Gesamtkosten nach Art" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Gegenstand</t>
   </si>
@@ -52,39 +52,21 @@
     <t>Projektkostenbetrachtung</t>
   </si>
   <si>
-    <t>Entwicklung Mobile App - "GoOnline"</t>
-  </si>
-  <si>
     <t>Lohnkosten pro Mitarbeiter</t>
   </si>
   <si>
-    <t>laufend</t>
-  </si>
-  <si>
     <t>Personalkosten</t>
   </si>
   <si>
     <t>Räumlichkeiten</t>
   </si>
   <si>
-    <t>Betriebskosten</t>
-  </si>
-  <si>
     <t>Notebooks</t>
   </si>
   <si>
     <t>fix</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Lizenzkosten</t>
-  </si>
-  <si>
-    <t>Visual Studio Professional</t>
-  </si>
-  <si>
     <t>PHP-Schulung</t>
   </si>
   <si>
@@ -94,23 +76,77 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>Gesamtkosten</t>
-  </si>
-  <si>
     <t>Gesamtbetrag</t>
   </si>
   <si>
     <t>Einzelbetrag</t>
+  </si>
+  <si>
+    <t>montalich</t>
+  </si>
+  <si>
+    <t>Entwicklung: Mobile App für GoOnline</t>
+  </si>
+  <si>
+    <t>Zeitraum:</t>
+  </si>
+  <si>
+    <t>26.02.2020 - 25.02.2021</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>monatlich</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>inkl. Soz.vers. AG-Anteile</t>
+  </si>
+  <si>
+    <t>Nebenkosten (Heiz., Strom)</t>
+  </si>
+  <si>
+    <t>Datenbankserver (Extern)</t>
+  </si>
+  <si>
+    <t>Webserver (Extern)</t>
+  </si>
+  <si>
+    <t>App Testsimulation 12 Monate</t>
+  </si>
+  <si>
+    <t>jährlich</t>
+  </si>
+  <si>
+    <t>Visual Studio 2019 Professional</t>
+  </si>
+  <si>
+    <t>Personalzusatzkosten</t>
+  </si>
+  <si>
+    <t>1200 € / 36 Monate (Anschaffungskosten/Laufzeit)</t>
+  </si>
+  <si>
+    <t>Betriebsmittelkosten</t>
+  </si>
+  <si>
+    <t>Anschaffungskosten</t>
+  </si>
+  <si>
+    <t>Jahressummen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +170,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,13 +192,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,43 +215,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -219,69 +371,92 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -294,100 +469,74 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,30 +552,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:H10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B4:H10"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Nr." dataDxfId="12"/>
-    <tableColumn id="2" name="Anzahl" dataDxfId="11"/>
-    <tableColumn id="3" name="Gegenstand" dataDxfId="10"/>
-    <tableColumn id="4" name="Art" dataDxfId="9"/>
-    <tableColumn id="5" name="Intervall" dataDxfId="8"/>
-    <tableColumn id="6" name="Einzelbetrag" dataDxfId="7" dataCellStyle="Währung"/>
-    <tableColumn id="7" name="Gesamtbetrag" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B4:I12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B4:I12" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr." dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Anzahl" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Gegenstand" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Art" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Intervall" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Einzelbetrag" dataDxfId="8" dataCellStyle="Währung"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Gesamtbetrag" dataDxfId="12">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{A3D8EB04-2FAA-4894-AF9D-0FFDB0644180}" name="Bemerkungen" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B4:C7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B4:C7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Kostenart" dataDxfId="3"/>
-    <tableColumn id="2" name="Summe" dataDxfId="2" dataCellStyle="Währung">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="B4:E9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B4:E9" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Kostenart" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Summe" dataDxfId="3" dataCellStyle="Währung">
       <calculatedColumnFormula>SUMIFS((Tabelle1[Gesamtbetrag]),Tabelle1[Art],B5)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F8B964D0-1F78-431E-BECE-77E17ED7080A}" name="Jahressummen" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{88B3BB7F-EBBA-492B-8957-E1AB5BFAD069}" name="monatlich" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Jahressummen]]/12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -729,124 +897,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="8">
-        <v>35</v>
+        <v>4900</v>
       </c>
       <c r="H5" s="9">
         <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+        <v>19600</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="8">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H6" s="9">
         <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="8">
         <v>1000</v>
@@ -855,81 +1041,144 @@
         <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="8">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H8" s="9">
         <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+        <v>500</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8">
+        <v>35</v>
+      </c>
       <c r="H9" s="9">
         <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
+        <v>140</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="8">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H10" s="9">
         <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
-        <v>200</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9">
+        <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>25</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8">
+        <v>300</v>
+      </c>
+      <c r="H12" s="9">
+        <f>Tabelle1[[#This Row],[Einzelbetrag]]*Tabelle1[[#This Row],[Anzahl]]</f>
+        <v>1200</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -940,60 +1189,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="12" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="12" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
-        <f>SUMIFS((Tabelle1[Gesamtbetrag]),Tabelle1[Art],B5)</f>
-        <v>1340</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <f>SUM(C:C)</f>
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <f>SUMIFS(Tabelle1[Gesamtbetrag],Tabelle1[Art],B5)</f>
+        <v>19600</v>
+      </c>
+      <c r="D5" s="8">
+        <v>235000</v>
+      </c>
+      <c r="E5" s="9">
+        <f>Tabelle2[[#This Row],[Jahressummen]]/12</f>
+        <v>19583.333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="12" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8">
         <f>SUMIFS((Tabelle1[Gesamtbetrag]),Tabelle1[Art],B6)</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>1400</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1400</v>
+      </c>
+      <c r="E6" s="9">
+        <f>Tabelle2[[#This Row],[Jahressummen]]/12</f>
+        <v>116.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="12" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8">
         <f>SUMIFS((Tabelle1[Gesamtbetrag]),Tabelle1[Art],B7)</f>
-        <v>200</v>
+        <v>1698</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20376</v>
+      </c>
+      <c r="E7" s="9">
+        <f>Tabelle2[[#This Row],[Jahressummen]]/12</f>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="12" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
+        <f>SUMIFS((Tabelle1[Gesamtbetrag]),Tabelle1[Art],B8)</f>
+        <v>1200</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="9">
+        <f>Tabelle2[[#This Row],[Jahressummen]]/12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15">
+        <f>SUM(C5:C8)</f>
+        <v>23898</v>
+      </c>
+      <c r="D9" s="17">
+        <f>SUM(D5:D8)</f>
+        <v>257976</v>
+      </c>
+      <c r="E9" s="17">
+        <f>Tabelle2[[#This Row],[Jahressummen]]/12</f>
+        <v>21498</v>
       </c>
     </row>
   </sheetData>
